--- a/График.xlsx
+++ b/График.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776C40CE-6EB7-4887-8E56-7D8D0506E4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A758A0-3719-4934-9973-C5EADA86311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1035" windowWidth="29040" windowHeight="15720" xr2:uid="{69ADDED3-408E-4421-9340-951E7C92F883}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69ADDED3-408E-4421-9340-951E7C92F883}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Статический</t>
   </si>
@@ -38,12 +38,60 @@
   <si>
     <t>Виды полиморфизма и время работы</t>
   </si>
+  <si>
+    <t>Внешний (смешанный)</t>
+  </si>
+  <si>
+    <t>Статический (CRTP)</t>
+  </si>
+  <si>
+    <t>Память</t>
+  </si>
+  <si>
+    <t>Скорость</t>
+  </si>
+  <si>
+    <t>nullptr</t>
+  </si>
+  <si>
+    <t>Добавление вирт. методов вне класса</t>
+  </si>
+  <si>
+    <t>Работа со статическими типами данных</t>
+  </si>
+  <si>
+    <t>Работа не только с наследниками базового</t>
+  </si>
+  <si>
+    <t>Количество кода</t>
+  </si>
+  <si>
+    <t>Удобство рефракторинга</t>
+  </si>
+  <si>
+    <t>Простота добавления новых элементов</t>
+  </si>
+  <si>
+    <t>Возможность хранить в коллекции</t>
+  </si>
+  <si>
+    <t>Засорение пространства имен</t>
+  </si>
+  <si>
+    <t>Статический полнофункциональный  (CRTP + meta)</t>
+  </si>
+  <si>
+    <t>Наличие виртуальных функци</t>
+  </si>
+  <si>
+    <t>Возможность хранение в базовом типе всех наследников</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +109,61 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,16 +171,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1595,17 +1733,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D983D8-CB5A-48D9-97BF-5CE6983323E6}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1790,7 +1936,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>179</v>
       </c>
@@ -1801,7 +1947,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>186</v>
       </c>
@@ -1812,7 +1958,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>184</v>
       </c>
@@ -1823,7 +1969,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>181</v>
       </c>
@@ -1834,7 +1980,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>181</v>
       </c>
@@ -1844,6 +1990,152 @@
       <c r="C21">
         <v>238</v>
       </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
